--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409460.438109823</v>
+        <v>3406915.252036535</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>272.3046147762591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.007578794843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>83.85112090809197</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521359</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>95.26725446313691</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>172.8998655118622</v>
+        <v>267.9612553036274</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>123.1151606089196</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>53.12040312879424</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>23.41986852521065</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>169.9685329265976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>131.4093105446496</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.7610225486951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>97.98413062224054</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>211.8986685707647</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.56412890121557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>47.16611136584742</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1387.069036214947</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2113.303449746141</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1760.534794476027</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1387.069036214947</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1387.069036214947</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>570.4215814289018</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4215814289018</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>570.4215814289018</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>281.2479710834698</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>281.2479710834698</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>281.2479710834698</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5099885583426</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>159.5099885583426</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>159.5099885583426</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>159.5099885583426</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>152.5644878091392</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>138.6410837477301</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224074</v>
@@ -4577,40 +4577,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982761</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.1098286224644</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4635,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750363</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750363</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750363</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750363</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1544.825983417399</v>
       </c>
       <c r="C8" t="n">
-        <v>1745.763590178429</v>
+        <v>1274.158048767271</v>
       </c>
       <c r="D8" t="n">
-        <v>1387.497891571678</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1599.743387334736</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1794.077600226718</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2127.058082584813</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2451.973130243321</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.349229285933</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2228.657526031084</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1897.594638687513</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1544.825983417399</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1544.825983417399</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1544.825983417399</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004798</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.0306379830699</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1548.79220526824</v>
       </c>
       <c r="N9" t="n">
-        <v>1828.690733635983</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1988.203046304744</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2412.170814785581</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>475.3083168204283</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>475.3083168204283</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>325.1916774080926</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1000.220690422341</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>1000.220690422341</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="V10" t="n">
-        <v>764.7254868573889</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W10" t="n">
-        <v>475.3083168204283</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>475.3083168204283</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>475.3083168204283</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,13 +5738,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,46 +5753,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249857</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192511</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>783.5579673960132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226941</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947872</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529338</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7254,22 +7254,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7494,13 +7494,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7637,13 +7637,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>385.4407792215511</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>216.3441640494765</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>366.5683748125719</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478237</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>203.4144275493294</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>263.1031298113804</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>55.74112246243951</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556016</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.17534280744516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>40.23897475306327</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.26785128072174</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>99.26785128072171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210057</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481115</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26427,34 +26427,34 @@
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682758</v>
+        <v>5677.536566682737</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682737</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682727</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682767</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>5677.536566682746</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682753</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682765</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682762</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143811.7798631327</v>
+        <v>-143811.7798631325</v>
       </c>
       <c r="C6" t="n">
-        <v>446156.0993514121</v>
+        <v>446156.099351412</v>
       </c>
       <c r="D6" t="n">
-        <v>290352.2932576177</v>
+        <v>290352.2932576173</v>
       </c>
       <c r="E6" t="n">
-        <v>-151420.818050391</v>
+        <v>-151455.5559758269</v>
       </c>
       <c r="F6" t="n">
-        <v>619631.8733304153</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="G6" t="n">
-        <v>619631.8733304156</v>
+        <v>619597.1354049797</v>
       </c>
       <c r="H6" t="n">
-        <v>619631.8733304155</v>
+        <v>619597.1354049796</v>
       </c>
       <c r="I6" t="n">
-        <v>619631.8733304156</v>
+        <v>619597.1354049796</v>
       </c>
       <c r="J6" t="n">
-        <v>443208.6541378226</v>
+        <v>443173.9162123866</v>
       </c>
       <c r="K6" t="n">
-        <v>619631.8733304153</v>
+        <v>619597.13540498</v>
       </c>
       <c r="L6" t="n">
-        <v>619631.8733304157</v>
+        <v>619597.1354049796</v>
       </c>
       <c r="M6" t="n">
-        <v>495423.3626223571</v>
+        <v>495388.6246969212</v>
       </c>
       <c r="N6" t="n">
-        <v>619631.8733304159</v>
+        <v>619597.1354049803</v>
       </c>
       <c r="O6" t="n">
-        <v>619631.8733304152</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="P6" t="n">
-        <v>619631.8733304151</v>
+        <v>619597.1354049802</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209783</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>55.44764369387582</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>19.65761318531486</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>240.0716518562652</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.5945811832555</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4424009259002</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>192.3730262591453</v>
+        <v>97.31163646738014</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>23.31880203764959</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>152.2454787713244</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>307.9814458135827</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>276.96469254416</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>434.178635838203</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,25 +33974,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35179,7 +35179,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>574.0260447017608</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35188,7 +35188,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>328.197017836877</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>547.878815574799</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545557</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.3810348240537</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>169.4270660337085</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>440.9755796648395</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>291.5823913937585</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37558,10 +37558,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
